--- a/docs/week-3-review/Estructura de la Matriz de Pruebas.xlsx
+++ b/docs/week-3-review/Estructura de la Matriz de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9a6d9e6501afd4a/Documents/Sofka U/Restaurante/Sistemas-de-pedidos-restaurante-backend/docs/week-3-review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54151E2F-1041-4BC6-A448-9C40C7DBBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{54151E2F-1041-4BC6-A448-9C40C7DBBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D22C2DB-EC26-47FF-ADFE-90B92168C412}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{925F13CA-90DB-47A0-9FF0-6A4C7A431896}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Evidencia</t>
-  </si>
-  <si>
     <t>Riesgo Asociado</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Errores HTTP incorrectos</t>
   </si>
   <si>
@@ -328,14 +322,25 @@
   </si>
   <si>
     <t>Diferenciación semántica</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -363,19 +368,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -423,19 +428,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E97F2BAB-100D-4CD7-B517-120E2A0EAB0C}" name="Tabla1" displayName="Tabla1" ref="A1:J22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:J22" xr:uid="{E97F2BAB-100D-4CD7-B517-120E2A0EAB0C}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{535C49B0-BD6C-4D63-AF05-75D38DABDCCF}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6E6DF704-9DAE-4D12-BB58-228B83928A44}" name="HDU" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6DD60256-452B-4F00-BBD0-7F0E284A5E3F}" name="Historia" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{03E6ADC0-CC3E-4511-A074-9E57EFE63DF7}" name="Escenario" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{E7C6DFEC-F383-4BF0-A0FE-03172CEB81FB}" name="Tipo de Prueba" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F6E1B976-02E7-4D37-BC0C-29A53DB2FEE9}" name="Técnica de Diseño" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F6C7E06E-9A4E-407E-BF5E-46E26B0805AD}" name="Prioridad" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{1DFB6F84-3734-47F2-AED5-1EF57F565034}" name="Resultado" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{6654C68F-EF61-4552-B666-A8488FBB4FDE}" name="Evidencia" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{2879B703-3840-4D14-B8C0-0A34BDD37E65}" name="Riesgo Asociado" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E97F2BAB-100D-4CD7-B517-120E2A0EAB0C}" name="Tabla1" displayName="Tabla1" ref="A1:I22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I22" xr:uid="{E97F2BAB-100D-4CD7-B517-120E2A0EAB0C}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{535C49B0-BD6C-4D63-AF05-75D38DABDCCF}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6E6DF704-9DAE-4D12-BB58-228B83928A44}" name="HDU" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6DD60256-452B-4F00-BBD0-7F0E284A5E3F}" name="Historia" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{03E6ADC0-CC3E-4511-A074-9E57EFE63DF7}" name="Escenario" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E7C6DFEC-F383-4BF0-A0FE-03172CEB81FB}" name="Tipo de Prueba" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F6E1B976-02E7-4D37-BC0C-29A53DB2FEE9}" name="Técnica de Diseño" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F6C7E06E-9A4E-407E-BF5E-46E26B0805AD}" name="Prioridad" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1DFB6F84-3734-47F2-AED5-1EF57F565034}" name="Resultado" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{2879B703-3840-4D14-B8C0-0A34BDD37E65}" name="Riesgo Asociado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -738,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACCCDD8-F277-4A96-B75B-8B432C113CA4}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,12 +753,11 @@
     <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="29.54296875" customWidth="1"/>
-    <col min="10" max="10" width="31.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="9" width="31.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,666 +785,643 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>